--- a/biology/Biochimie/Oléate_de_sodium/Oléate_de_sodium.xlsx
+++ b/biology/Biochimie/Oléate_de_sodium/Oléate_de_sodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ol%C3%A9ate_de_sodium</t>
+          <t>Oléate_de_sodium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'oléate de sodium est un composé organique, de formule brute NaC18H33O2 et de formule semi-développée CH3(CH2)7CH=CH(CH2)7COONa (souvent abrégée en C17H33COONa). C'est le sel de sodium de l'acide oléique. Il se présente sous la forme de cristaux vert clair ou jaunes, qui se dissolvent dans l'eau.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ol%C3%A9ate_de_sodium</t>
+          <t>Oléate_de_sodium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oléate de sodium est le produit de la réaction de l'hydroxyde de sodium et de l'acide oléique : 
             N
@@ -554,7 +568,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ol%C3%A9ate_de_sodium</t>
+          <t>Oléate_de_sodium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,7 +586,9 @@
           <t>Propriétés physiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le retrouve sous forme de cristaux orthorhombiques vert clair ou jaunes. Il est soluble dans l'eau et l'éthanol.
 </t>
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ol%C3%A9ate_de_sodium</t>
+          <t>Oléate_de_sodium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,7 +619,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Composant de détergent ;
 Composant de textiles, notamment dans l'apprêt ;
